--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -519,8 +519,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -656,7 +664,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -721,6 +729,10 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -785,6 +797,10 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -805,16 +821,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -881,6 +887,16 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -893,15 +909,15 @@
     <sortCondition ref="A7:A44"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Target Value" dataDxfId="9"/>
-    <tableColumn id="11" name="Stock" dataDxfId="8"/>
-    <tableColumn id="6" name="Query" dataDxfId="7">
+    <tableColumn id="1" name="Target Value" dataDxfId="8"/>
+    <tableColumn id="11" name="Stock" dataDxfId="7"/>
+    <tableColumn id="6" name="Query" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="SMD" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],SMD!$AB$1:'SMD'!$AC$100,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TH Status" dataDxfId="1">
+    <tableColumn id="4" name="TH Status" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],TH!$AB$1:'TH'!AD$300,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -947,11 +963,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="0">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="4">
+    <tableColumn id="27" name="Query" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -999,11 +1015,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="2">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="3">
+    <tableColumn id="27" name="Query" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -1337,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1492,7 +1508,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11:E15">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="STOCK">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="STOCK">
       <formula>NOT(ISERROR(SEARCH("STOCK",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1511,12 +1527,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane xSplit="16180" topLeftCell="Z1" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane xSplit="16180" topLeftCell="V1" activePane="topRight"/>
       <selection activeCell="AF14" sqref="AF14"/>
-      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25540" windowHeight="31520" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Column4</t>
-  </si>
-  <si>
     <t>Through Hole</t>
   </si>
   <si>
@@ -453,13 +450,16 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-search/en?pv139=566&amp;pv139=391&amp;pv139=17&amp;pv139=311&amp;FV=fff4000d%2Cfff80397%2Cfffc01ea%2C140088%2C1c0002%2C1c0003%2C1140050&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=500</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,8 +495,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +516,14 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -518,8 +531,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -657,14 +681,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -733,6 +774,14 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -801,6 +850,14 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -971,7 +1028,7 @@
       <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
-    <tableColumn id="29" name="Column4"/>
+    <tableColumn id="29" name="Device"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,7 +1080,7 @@
       <calculatedColumnFormula>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
-    <tableColumn id="29" name="Column4"/>
+    <tableColumn id="29" name="Device"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,23 +1424,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1391,24 +1448,24 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -1428,7 +1485,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1448,7 +1505,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -1468,7 +1525,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -1488,7 +1545,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1527,13 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane xSplit="16180" topLeftCell="V1" activePane="topRight"/>
-      <selection activeCell="AF14" sqref="AF14"/>
-      <selection pane="topRight" activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1560,7 +1614,7 @@
     <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,28 +1655,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -1631,45 +1685,45 @@
         <v>14</v>
       </c>
       <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
       <c r="Z1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
         <v>18</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:30" hidden="1">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
       </c>
       <c r="G2">
         <v>21820</v>
@@ -1690,43 +1744,43 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
       </c>
       <c r="S2" t="s">
         <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
       <c r="Z2" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -1737,24 +1791,24 @@
         <v>10MHz</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" ht="16" thickTop="1">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
       </c>
       <c r="G3">
         <v>103151</v>
@@ -1775,43 +1829,43 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
       </c>
       <c r="S3" t="s">
         <v>16</v>
       </c>
       <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
         <v>54</v>
       </c>
-      <c r="V3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>55</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>56</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>57</v>
       </c>
       <c r="Z3" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -1827,22 +1881,22 @@
     </row>
     <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
       </c>
       <c r="G4">
         <v>12069</v>
@@ -1863,43 +1917,43 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
       <c r="U4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
         <v>55</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>56</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>57</v>
       </c>
       <c r="Z4" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -1912,22 +1966,22 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>2771</v>
@@ -1948,43 +2002,43 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>51</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>53</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
         <v>54</v>
       </c>
-      <c r="V5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>55</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>56</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>57</v>
       </c>
       <c r="Z5" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2000,22 +2054,22 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
       </c>
       <c r="G6">
         <v>105621</v>
@@ -2036,43 +2090,43 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
         <v>61</v>
       </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
       <c r="R6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
         <v>16</v>
       </c>
       <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
         <v>63</v>
-      </c>
-      <c r="U6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>64</v>
       </c>
       <c r="Z6" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2088,22 +2142,22 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
       <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
       </c>
       <c r="G7">
         <v>11674</v>
@@ -2124,43 +2178,43 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
         <v>16</v>
       </c>
       <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
         <v>63</v>
-      </c>
-      <c r="U7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>64</v>
       </c>
       <c r="Z7" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2176,22 +2230,22 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
       </c>
       <c r="G8">
         <v>43735</v>
@@ -2212,43 +2266,43 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>49</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>51</v>
-      </c>
-      <c r="R8" t="s">
-        <v>52</v>
       </c>
       <c r="S8" t="s">
         <v>16</v>
       </c>
       <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
         <v>53</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" t="s">
         <v>54</v>
       </c>
-      <c r="V8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>55</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>56</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>57</v>
       </c>
       <c r="Z8" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2264,22 +2318,22 @@
     </row>
     <row r="9" spans="1:30" hidden="1">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
       <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
       </c>
       <c r="G9">
         <v>12636</v>
@@ -2300,43 +2354,43 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
         <v>47</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>49</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>51</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
       </c>
       <c r="S9" t="s">
         <v>16</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
         <v>55</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>56</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>57</v>
       </c>
       <c r="Z9" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2349,22 +2403,22 @@
     </row>
     <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2385,43 +2439,43 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>62</v>
-      </c>
       <c r="R10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
         <v>16</v>
       </c>
       <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
         <v>63</v>
-      </c>
-      <c r="U10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>64</v>
       </c>
       <c r="Z10" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2434,22 +2488,22 @@
     </row>
     <row r="11" spans="1:30" hidden="1">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2470,43 +2524,43 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
         <v>49</v>
       </c>
-      <c r="P11" t="s">
-        <v>50</v>
-      </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
         <v>16</v>
       </c>
       <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
         <v>63</v>
-      </c>
-      <c r="U11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>64</v>
       </c>
       <c r="Z11" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2534,12 +2588,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane xSplit="16180" topLeftCell="Y1" activePane="topRight"/>
       <selection activeCell="W7" sqref="W7"/>
-      <selection pane="topRight" activeCell="AA18" sqref="AA18"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2563,7 +2618,7 @@
     <col min="23" max="23" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2604,28 +2659,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -2634,45 +2689,45 @@
         <v>14</v>
       </c>
       <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
       <c r="Z1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
         <v>18</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
       </c>
       <c r="G2">
         <v>810</v>
@@ -2690,46 +2745,46 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>99</v>
       </c>
       <c r="Z2" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2745,22 +2800,22 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>9140</v>
@@ -2781,43 +2836,43 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
         <v>96</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="X3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>104</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>105</v>
       </c>
       <c r="Z3" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2833,22 +2888,22 @@
     </row>
     <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>3228</v>
@@ -2869,43 +2924,43 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
         <v>96</v>
       </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>120</v>
       </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>121</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>122</v>
       </c>
       <c r="Z4" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2918,22 +2973,22 @@
     </row>
     <row r="5" spans="1:30" hidden="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
         <v>126</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5">
         <v>5732</v>
@@ -2954,43 +3009,43 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
         <v>96</v>
       </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="X5" t="s">
         <v>103</v>
       </c>
-      <c r="T5" t="s">
-        <v>128</v>
-      </c>
-      <c r="U5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>104</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>105</v>
       </c>
       <c r="Z5" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3003,22 +3058,22 @@
     </row>
     <row r="6" spans="1:30" hidden="1">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>2117</v>
@@ -3036,46 +3091,46 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
         <v>96</v>
       </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="X6" t="s">
         <v>103</v>
       </c>
-      <c r="T6" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>104</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>105</v>
       </c>
       <c r="Z6" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3088,22 +3143,22 @@
     </row>
     <row r="7" spans="1:30" hidden="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7">
         <v>5784</v>
@@ -3124,43 +3179,43 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
         <v>96</v>
       </c>
-      <c r="N7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="X7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
-        <v>128</v>
-      </c>
-      <c r="U7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>104</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>105</v>
       </c>
       <c r="Z7" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3173,22 +3228,22 @@
     </row>
     <row r="8" spans="1:30" hidden="1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
         <v>139</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
       </c>
       <c r="G8">
         <v>238</v>
@@ -3206,46 +3261,46 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
         <v>96</v>
       </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="X8" t="s">
         <v>103</v>
       </c>
-      <c r="T8" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
       <c r="Z8" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3258,22 +3313,22 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>114</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
       </c>
       <c r="G9">
         <v>5448</v>
@@ -3291,46 +3346,46 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" t="s">
         <v>96</v>
       </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="X9" t="s">
         <v>103</v>
       </c>
-      <c r="T9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" t="s">
-        <v>97</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>105</v>
       </c>
       <c r="Z9" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3346,22 +3401,22 @@
     </row>
     <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10">
         <v>6796</v>
@@ -3382,43 +3437,43 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" t="s">
         <v>96</v>
       </c>
-      <c r="N10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="X10" t="s">
         <v>103</v>
       </c>
-      <c r="T10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>104</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>105</v>
       </c>
       <c r="Z10" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3431,22 +3486,22 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
       </c>
       <c r="G11">
         <v>11291</v>
@@ -3464,46 +3519,46 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" t="s">
         <v>96</v>
       </c>
-      <c r="N11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s">
-        <v>63</v>
-      </c>
-      <c r="U11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>97</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>98</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>99</v>
       </c>
       <c r="Z11" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3519,22 +3574,22 @@
     </row>
     <row r="12" spans="1:30" hidden="1">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
         <v>123</v>
       </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12">
         <v>1535</v>
@@ -3552,46 +3607,46 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" t="s">
         <v>96</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" t="s">
-        <v>125</v>
-      </c>
-      <c r="U12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>97</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>98</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>99</v>
       </c>
       <c r="Z12" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3604,22 +3659,22 @@
     </row>
     <row r="13" spans="1:30" hidden="1">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
       </c>
       <c r="G13">
         <v>5735</v>
@@ -3640,43 +3695,43 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" t="s">
         <v>96</v>
       </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" t="s">
-        <v>63</v>
-      </c>
-      <c r="U13" t="s">
-        <v>54</v>
-      </c>
-      <c r="V13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>97</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>98</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>99</v>
       </c>
       <c r="Z13" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3689,22 +3744,22 @@
     </row>
     <row r="14" spans="1:30" hidden="1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14">
         <v>5514</v>
@@ -3725,43 +3780,43 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>97</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>98</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>99</v>
       </c>
       <c r="Z14" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3774,22 +3829,22 @@
     </row>
     <row r="15" spans="1:30" hidden="1">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15">
         <v>5894</v>
@@ -3810,43 +3865,43 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>97</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>98</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>99</v>
       </c>
       <c r="Z15" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3859,22 +3914,22 @@
     </row>
     <row r="16" spans="1:30" hidden="1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
         <v>133</v>
       </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16">
         <v>1881</v>
@@ -3895,43 +3950,43 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
         <v>96</v>
       </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" t="s">
-        <v>125</v>
-      </c>
-      <c r="U16" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>97</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>98</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>99</v>
       </c>
       <c r="Z16" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>

--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25540" windowHeight="31520" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="145">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>V53-R0</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -542,8 +545,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,15 +713,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +801,7 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -858,6 +878,7 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1036,13 +1057,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:AD16" totalsRowShown="0">
-  <autoFilter ref="A1:AD16">
-    <filterColumn colId="26">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD16"/>
   <sortState ref="A2:AD16">
     <sortCondition ref="N1:N16"/>
   </sortState>
@@ -1586,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1878,6 +1893,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
+      <c r="AD3" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
@@ -2051,6 +2069,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>12MHzStock</v>
       </c>
+      <c r="AD5" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
@@ -2139,6 +2160,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
+      <c r="AD6" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
@@ -2227,6 +2251,9 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
+      <c r="AD7" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
@@ -2314,6 +2341,9 @@
       <c r="AB8" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:30" hidden="1">
@@ -2588,13 +2618,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane xSplit="16180" topLeftCell="Y1" activePane="topRight"/>
-      <selection activeCell="W7" sqref="W7"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="16180" topLeftCell="X1" activePane="topRight"/>
+      <selection activeCell="AA2" sqref="AA2"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2797,6 +2826,9 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
+      <c r="AD2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
@@ -2885,8 +2917,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
+      <c r="AD3" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" hidden="1">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2971,7 +3006,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +3091,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3261,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3398,8 +3433,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
+      <c r="AD9" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" hidden="1">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3571,8 +3609,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
       </c>
+      <c r="AD11" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" hidden="1">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3698,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3742,7 +3783,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3827,7 +3868,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3912,7 +3953,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>40</v>
       </c>

--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Stephen Deiss\Gadgetron\Gadgets\Libraries\Parts\Digikey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
     <sheet name="SMD" sheetId="1" r:id="rId2"/>
     <sheet name="TH" sheetId="19" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="148">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -456,6 +461,15 @@
   </si>
   <si>
     <t>V53-R0</t>
+  </si>
+  <si>
+    <t>MURATA_CTLS8_G_Series_HS</t>
+  </si>
+  <si>
+    <t>MURATA_CTLS8_X_Series_HS</t>
+  </si>
+  <si>
+    <t>MURATA_CSTCExxMyyV53-R0_HS</t>
   </si>
 </sst>
 </file>
@@ -716,13 +730,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -883,6 +900,16 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -965,18 +992,16 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -987,15 +1012,15 @@
     <sortCondition ref="A7:A44"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Target Value" dataDxfId="8"/>
-    <tableColumn id="11" name="Stock" dataDxfId="7"/>
-    <tableColumn id="6" name="Query" dataDxfId="6">
+    <tableColumn id="1" name="Target Value" dataDxfId="9"/>
+    <tableColumn id="11" name="Stock" dataDxfId="8"/>
+    <tableColumn id="6" name="Query" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SMD" dataDxfId="5">
+    <tableColumn id="3" name="SMD" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],SMD!$AB$1:'SMD'!$AC$100,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TH Status" dataDxfId="4">
+    <tableColumn id="4" name="TH Status" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],TH!$AB$1:'TH'!AD$300,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1041,11 +1066,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="3">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="2">
+    <tableColumn id="27" name="Query" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -1087,11 +1112,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="1">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="0">
+    <tableColumn id="27" name="Query" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -1429,20 +1454,20 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1450,7 +1475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1458,10 +1483,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>10MHzStock</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1518,7 +1543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1538,7 +1563,7 @@
         <v>16MHzStock</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1558,7 +1583,7 @@
         <v>20MHzStock</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1580,7 +1605,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11:E15">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="STOCK">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STOCK">
       <formula>NOT(ISERROR(SEARCH("STOCK",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1601,35 +1626,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="A1:AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.625" customWidth="1"/>
+    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1748,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1806,7 +1833,7 @@
         <v>10MHz</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" thickTop="1">
+    <row r="3" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1893,11 +1920,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
+      <c r="AC3" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AD3" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>12MHz</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2069,11 +2099,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>12MHzStock</v>
       </c>
+      <c r="AC5" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AD5" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2160,11 +2193,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
+      <c r="AC6" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AD6" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2251,11 +2287,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
+      <c r="AC7" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AD7" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2342,11 +2381,14 @@
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
       </c>
+      <c r="AC8" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AD8" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2431,7 +2473,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2516,7 +2558,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2604,9 +2646,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2620,34 +2662,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="16180" topLeftCell="X1" activePane="topRight"/>
-      <selection activeCell="AA2" sqref="AA2"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane xSplit="26835"/>
+      <selection activeCell="AC20" sqref="AC20"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.375" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="28" max="28" width="2" customWidth="1"/>
+    <col min="29" max="29" width="30.625" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2784,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" thickTop="1">
+    <row r="2" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2826,11 +2871,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
+      <c r="AC2" t="s">
+        <v>145</v>
+      </c>
       <c r="AD2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2917,11 +2965,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
+      <c r="AC3" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="AD3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3005,8 +3056,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHz</v>
       </c>
+      <c r="AC4" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3090,8 +3144,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHz</v>
       </c>
+      <c r="AC5" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3175,8 +3232,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHz</v>
       </c>
+      <c r="AC6" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3260,8 +3320,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHz</v>
       </c>
+      <c r="AC7" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3345,8 +3408,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHz</v>
       </c>
+      <c r="AC8" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3433,11 +3499,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
+      <c r="AC9" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="AD9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3521,8 +3590,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>20MHz</v>
       </c>
+      <c r="AC10" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3609,11 +3681,14 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
       </c>
+      <c r="AC11" t="s">
+        <v>145</v>
+      </c>
       <c r="AD11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3697,8 +3772,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHz</v>
       </c>
+      <c r="AC12" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3782,8 +3860,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHz</v>
       </c>
+      <c r="AC13" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3867,8 +3948,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHz</v>
       </c>
+      <c r="AC14" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3952,8 +4036,11 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHz</v>
       </c>
+      <c r="AC15" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -4037,12 +4124,15 @@
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHz</v>
       </c>
+      <c r="AC16" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Stephen Deiss\Gadgetron\Gadgets\Libraries\Parts\Digikey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
     <sheet name="SMD" sheetId="1" r:id="rId2"/>
     <sheet name="TH" sheetId="19" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="150">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -460,9 +455,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>V53-R0</t>
-  </si>
-  <si>
     <t>MURATA_CTLS8_G_Series_HS</t>
   </si>
   <si>
@@ -470,6 +462,15 @@
   </si>
   <si>
     <t>MURATA_CSTCExxMyyV53-R0_HS</t>
+  </si>
+  <si>
+    <t>SMD-V53-R0</t>
+  </si>
+  <si>
+    <t>TH-CTS8-G</t>
+  </si>
+  <si>
+    <t>TH-CTS8-X</t>
   </si>
 </sst>
 </file>
@@ -900,16 +901,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -992,6 +983,16 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1012,15 +1013,15 @@
     <sortCondition ref="A7:A44"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Target Value" dataDxfId="9"/>
-    <tableColumn id="11" name="Stock" dataDxfId="8"/>
-    <tableColumn id="6" name="Query" dataDxfId="7">
+    <tableColumn id="1" name="Target Value" dataDxfId="8"/>
+    <tableColumn id="11" name="Stock" dataDxfId="7"/>
+    <tableColumn id="6" name="Query" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SMD" dataDxfId="6">
+    <tableColumn id="3" name="SMD" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],SMD!$AB$1:'SMD'!$AC$100,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TH Status" dataDxfId="5">
+    <tableColumn id="4" name="TH Status" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table4[[#This Row],[Query]],TH!$AB$1:'TH'!AD$300,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1066,11 +1067,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="4">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="3">
+    <tableColumn id="27" name="Query" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -1082,7 +1083,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:AD16" totalsRowShown="0">
-  <autoFilter ref="A1:AD16"/>
+  <autoFilter ref="A1:AD16">
+    <filterColumn colId="26">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AD16">
     <sortCondition ref="N1:N16"/>
   </sortState>
@@ -1112,11 +1119,11 @@
     <tableColumn id="23" name="Package / Case"/>
     <tableColumn id="25" name="Size / Dimension"/>
     <tableColumn id="26" name="Height"/>
-    <tableColumn id="30" name="Stock Freq?" dataDxfId="2">
+    <tableColumn id="30" name="Stock Freq?" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="Stock"/>
-    <tableColumn id="27" name="Query" dataDxfId="1">
+    <tableColumn id="27" name="Query" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="Package"/>
@@ -1454,20 +1461,20 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1483,10 +1490,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>10MHzStock</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>16MHzStock</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1583,7 +1590,7 @@
         <v>20MHzStock</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1605,7 +1612,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11:E15">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STOCK">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="STOCK">
       <formula>NOT(ISERROR(SEARCH("STOCK",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1626,37 +1633,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="A1:AD11"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.625" customWidth="1"/>
-    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" hidden="1">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>10MHz</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="16" thickTop="1">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1921,13 +1928,13 @@
         <v>10MHzStock</v>
       </c>
       <c r="AC3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>12MHz</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2100,13 +2107,13 @@
         <v>12MHzStock</v>
       </c>
       <c r="AC5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD5" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2194,13 +2201,13 @@
         <v>16MHzStock</v>
       </c>
       <c r="AC6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD6" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2288,13 +2295,13 @@
         <v>20MHzStock</v>
       </c>
       <c r="AC7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD7" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2382,13 +2389,13 @@
         <v>8MHzStock</v>
       </c>
       <c r="AC8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD8" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" hidden="1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>8MHz</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>16MHz</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2646,9 +2653,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2660,39 +2667,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane xSplit="26835"/>
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane xSplit="26840"/>
+      <selection activeCell="W1" sqref="W1"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
     <col min="15" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="7.375" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
     <col min="28" max="28" width="2" customWidth="1"/>
-    <col min="29" max="29" width="30.625" customWidth="1"/>
+    <col min="29" max="29" width="30.6640625" customWidth="1"/>
     <col min="37" max="37" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2872,13 +2880,13 @@
         <v>10MHzStock</v>
       </c>
       <c r="AC2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2966,13 +2974,13 @@
         <v>16MHzStock</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3057,10 +3065,10 @@
         <v>16MHz</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3145,10 +3153,10 @@
         <v>16MHz</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3233,10 +3241,10 @@
         <v>16MHz</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3321,10 +3329,10 @@
         <v>16MHz</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3409,10 +3417,10 @@
         <v>16MHz</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3500,13 +3508,13 @@
         <v>20MHzStock</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3591,10 +3599,10 @@
         <v>20MHz</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3682,13 +3690,13 @@
         <v>8MHzStock</v>
       </c>
       <c r="AC11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3773,10 +3781,10 @@
         <v>8MHz</v>
       </c>
       <c r="AC12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3861,10 +3869,10 @@
         <v>8MHz</v>
       </c>
       <c r="AC13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3949,10 +3957,10 @@
         <v>8MHz</v>
       </c>
       <c r="AC14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4037,10 +4045,10 @@
         <v>8MHz</v>
       </c>
       <c r="AC15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -4125,14 +4133,14 @@
         <v>8MHz</v>
       </c>
       <c r="AC16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Digikey/Resonators.xlsx
+++ b/Digikey/Resonators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="150">
   <si>
-    <t>ï»¿"Datasheets"</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>TH-CTS8-X</t>
+  </si>
+  <si>
+    <t>Datasheets</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -742,7 +754,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -820,6 +832,12 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -897,6 +915,12 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1042,7 +1066,7 @@
     <sortCondition ref="N1:N11"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" name="ï»¿&quot;Datasheets&quot;"/>
+    <tableColumn id="1" name="Datasheets"/>
     <tableColumn id="2" name="Image"/>
     <tableColumn id="3" name="Digi-Key Part Number"/>
     <tableColumn id="4" name="Manufacturer Part Number"/>
@@ -1094,7 +1118,7 @@
     <sortCondition ref="N1:N16"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" name="ï»¿&quot;Datasheets&quot;"/>
+    <tableColumn id="1" name="Datasheets"/>
     <tableColumn id="2" name="Image"/>
     <tableColumn id="3" name="Digi-Key Part Number"/>
     <tableColumn id="4" name="Manufacturer Part Number"/>
@@ -1471,23 +1495,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1495,27 +1519,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</f>
@@ -1532,10 +1556,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</f>
@@ -1552,10 +1576,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</f>
@@ -1572,10 +1596,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</f>
@@ -1592,10 +1616,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE(Table4[[#This Row],[Target Value]],Table4[[#This Row],[Stock]])</f>
@@ -1631,11 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1665,114 +1688,114 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:30" hidden="1">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
       </c>
       <c r="G2">
         <v>21820</v>
@@ -1790,46 +1813,46 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" t="s">
-        <v>72</v>
-      </c>
       <c r="V2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
       <c r="Z2" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -1842,22 +1865,22 @@
     </row>
     <row r="3" spans="1:30" ht="16" thickTop="1">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
       </c>
       <c r="G3">
         <v>103151</v>
@@ -1875,83 +1898,83 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>52</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
       </c>
       <c r="Z3" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
       <c r="AC3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
       <c r="G4">
         <v>12069</v>
@@ -1969,46 +1992,46 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>50</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
       <c r="U4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
         <v>54</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>55</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
       </c>
       <c r="Z4" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2021,22 +2044,22 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>2771</v>
@@ -2054,83 +2077,83 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="V5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>55</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
       </c>
       <c r="Z5" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>12MHzStock</v>
       </c>
       <c r="AC5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
       </c>
       <c r="G6">
         <v>105621</v>
@@ -2148,83 +2171,83 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>61</v>
       </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
         <v>62</v>
-      </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>63</v>
       </c>
       <c r="Z6" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
       <c r="AC6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
       </c>
       <c r="G7">
         <v>11674</v>
@@ -2242,83 +2265,83 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>61</v>
       </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
         <v>62</v>
-      </c>
-      <c r="U7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>63</v>
       </c>
       <c r="Z7" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
       <c r="AC7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
       <c r="G8">
         <v>43735</v>
@@ -2336,83 +2359,83 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>51</v>
       </c>
-      <c r="S8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>52</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
         <v>53</v>
       </c>
-      <c r="V8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>55</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>56</v>
       </c>
       <c r="Z8" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="str">
         <f>CONCATENATE(Table1[[#This Row],[Frequency]],Table1[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
       </c>
       <c r="AC8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:30" hidden="1">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
       <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
       <c r="G9">
         <v>12636</v>
@@ -2430,46 +2453,46 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>51</v>
       </c>
-      <c r="S9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
         <v>54</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>55</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>56</v>
       </c>
       <c r="Z9" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2482,22 +2505,22 @@
     </row>
     <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2506,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2515,46 +2538,46 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>61</v>
       </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" t="s">
         <v>62</v>
-      </c>
-      <c r="U10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>63</v>
       </c>
       <c r="Z10" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2567,22 +2590,22 @@
     </row>
     <row r="11" spans="1:30" hidden="1">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2591,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2600,46 +2623,46 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
         <v>15</v>
       </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>61</v>
       </c>
-      <c r="R11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" t="s">
         <v>62</v>
-      </c>
-      <c r="U11" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" t="s">
-        <v>54</v>
-      </c>
-      <c r="X11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>63</v>
       </c>
       <c r="Z11" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -2667,12 +2690,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="26840"/>
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2702,114 +2724,114 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
       </c>
       <c r="G2">
         <v>810</v>
@@ -2827,83 +2849,83 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
         <v>95</v>
       </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>97</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>98</v>
       </c>
       <c r="Z2" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="3" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>10MHzStock</v>
       </c>
       <c r="AC2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>9140</v>
@@ -2921,83 +2943,83 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
         <v>95</v>
       </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="X3" t="s">
         <v>102</v>
       </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>103</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>104</v>
       </c>
       <c r="Z3" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB3" s="3" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>16MHzStock</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>3228</v>
@@ -3015,46 +3037,46 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
         <v>95</v>
       </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>119</v>
       </c>
-      <c r="U4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>120</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>121</v>
       </c>
       <c r="Z4" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3065,27 +3087,27 @@
         <v>16MHz</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:30" hidden="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>5732</v>
@@ -3103,46 +3125,46 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
         <v>95</v>
       </c>
-      <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="X5" t="s">
         <v>102</v>
       </c>
-      <c r="T5" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>103</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>104</v>
       </c>
       <c r="Z5" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3153,27 +3175,27 @@
         <v>16MHz</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:30" hidden="1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>2117</v>
@@ -3191,46 +3213,46 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
         <v>95</v>
       </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="X6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>103</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>104</v>
       </c>
       <c r="Z6" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3241,27 +3263,27 @@
         <v>16MHz</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:30" hidden="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>5784</v>
@@ -3279,46 +3301,46 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
         <v>95</v>
       </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="X7" t="s">
         <v>102</v>
       </c>
-      <c r="T7" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>103</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
       </c>
       <c r="Z7" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3329,27 +3351,27 @@
         <v>16MHz</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:30" hidden="1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>140</v>
       </c>
       <c r="G8">
         <v>238</v>
@@ -3367,46 +3389,46 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" t="s">
         <v>95</v>
       </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="T8" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>103</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
       </c>
       <c r="Z8" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3417,27 +3439,27 @@
         <v>16MHz</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>113</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
       </c>
       <c r="G9">
         <v>5448</v>
@@ -3455,83 +3477,83 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="X9" t="s">
         <v>102</v>
       </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>103</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>104</v>
       </c>
       <c r="Z9" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="3" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>20MHzStock</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>6796</v>
@@ -3549,46 +3571,46 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" t="s">
         <v>95</v>
       </c>
-      <c r="N10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="X10" t="s">
         <v>102</v>
       </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" t="s">
-        <v>96</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>103</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>104</v>
       </c>
       <c r="Z10" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3599,27 +3621,27 @@
         <v>20MHz</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
       </c>
       <c r="G11">
         <v>11291</v>
@@ -3637,83 +3659,83 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
         <v>95</v>
       </c>
-      <c r="N11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" t="s">
-        <v>53</v>
-      </c>
-      <c r="V11" t="s">
-        <v>19</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>96</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>97</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>98</v>
       </c>
       <c r="Z11" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
         <v>Stock</v>
       </c>
       <c r="AA11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB11" s="3" t="str">
         <f>CONCATENATE(Table13[[#This Row],[Frequency]],Table13[[#This Row],[Stock]])</f>
         <v>8MHzStock</v>
       </c>
       <c r="AC11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:30" hidden="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
         <v>122</v>
       </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>1535</v>
@@ -3731,46 +3753,46 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" t="s">
         <v>95</v>
       </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" t="s">
-        <v>53</v>
-      </c>
-      <c r="V12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>96</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>97</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>98</v>
       </c>
       <c r="Z12" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3781,27 +3803,27 @@
         <v>8MHz</v>
       </c>
       <c r="AC12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:30" hidden="1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>92</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
       </c>
       <c r="G13">
         <v>5735</v>
@@ -3819,46 +3841,46 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" t="s">
-        <v>53</v>
-      </c>
-      <c r="V13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>96</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>97</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>98</v>
       </c>
       <c r="Z13" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3869,27 +3891,27 @@
         <v>8MHz</v>
       </c>
       <c r="AC13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:30" hidden="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
         <v>115</v>
       </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <v>5514</v>
@@ -3907,46 +3929,46 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" t="s">
-        <v>19</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>96</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>97</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>98</v>
       </c>
       <c r="Z14" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -3957,27 +3979,27 @@
         <v>8MHz</v>
       </c>
       <c r="AC14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:30" hidden="1">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
         <v>128</v>
       </c>
-      <c r="D15" t="s">
-        <v>129</v>
-      </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15">
         <v>5894</v>
@@ -3995,46 +4017,46 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" t="s">
         <v>95</v>
       </c>
-      <c r="N15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" t="s">
-        <v>124</v>
-      </c>
-      <c r="U15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" t="s">
-        <v>19</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>97</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>98</v>
       </c>
       <c r="Z15" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -4045,27 +4067,27 @@
         <v>8MHz</v>
       </c>
       <c r="AC15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:30" hidden="1">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
         <v>132</v>
       </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <v>1881</v>
@@ -4083,46 +4105,46 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
         <v>95</v>
       </c>
-      <c r="N16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" t="s">
-        <v>124</v>
-      </c>
-      <c r="U16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V16" t="s">
-        <v>19</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>96</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>97</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>98</v>
       </c>
       <c r="Z16" t="str">
         <f>VLOOKUP(Table13[[#This Row],[Frequency]],Values!$A$11:'Values'!$D$20,2,0)</f>
@@ -4133,7 +4155,7 @@
         <v>8MHz</v>
       </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
